--- a/Backlog/ProductBacklog-Sample.xlsx
+++ b/Backlog/ProductBacklog-Sample.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Cài dặt "Quản lý Order (Xem danh sách Order)"</t>
-  </si>
-  <si>
-    <t>Cài đặt "Quản lý Order (Xuất Order về cho thu ngân và đầu bếp)"</t>
   </si>
   <si>
     <t>Cài dặt "Quản lý Order (Thêm món vào Order)"</t>
@@ -477,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +487,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -775,256 +778,256 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,7 +1368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -1381,7 +1384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="82">
       <c r="A3" s="83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="84"/>
@@ -1467,7 +1470,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="86"/>
@@ -1484,7 +1487,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="85"/>
       <c r="B10" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
@@ -1500,7 +1503,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="85"/>
       <c r="B11" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -1516,7 +1519,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="85"/>
       <c r="B12" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="87"/>
       <c r="D12" s="87"/>
@@ -1532,7 +1535,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="85"/>
       <c r="B13" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="87"/>
@@ -1561,7 +1564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="86"/>
@@ -1578,7 +1581,7 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="85"/>
       <c r="B16" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -1594,7 +1597,7 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="85"/>
       <c r="B17" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="87"/>
       <c r="D17" s="87"/>
@@ -1610,7 +1613,7 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="85"/>
       <c r="B18" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -1639,7 +1642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -1656,7 +1659,7 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="85"/>
       <c r="B21" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -1672,7 +1675,7 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="85"/>
       <c r="B22" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -1688,7 +1691,7 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="85"/>
       <c r="B23" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -1704,7 +1707,7 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="85"/>
       <c r="B24" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -1746,7 +1749,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -1764,22 +1767,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="C3" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="D3" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="E3" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="F3" s="72" t="s">
         <v>114</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -1787,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>117</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="77">
         <v>45910</v>
@@ -1805,13 +1808,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="D5" s="75" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>121</v>
       </c>
       <c r="E5" s="77">
         <v>45910</v>
@@ -1823,13 +1826,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="77">
         <v>45910</v>
@@ -1841,13 +1844,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>126</v>
-      </c>
       <c r="D7" s="75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="77">
         <v>45910</v>
@@ -1911,7 +1914,7 @@
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="6"/>
       <c r="B1" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="60"/>
@@ -1946,7 +1949,7 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="62"/>
       <c r="B4" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="60"/>
@@ -1959,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="21">
         <v>3</v>
@@ -1974,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -1989,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="21">
         <v>2</v>
@@ -2004,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="21">
         <v>2</v>
@@ -2019,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="21">
         <v>3</v>
@@ -2032,7 +2035,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="62"/>
       <c r="B10" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="60"/>
@@ -2045,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="21">
         <v>2</v>
@@ -2060,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="21">
         <v>4</v>
@@ -2075,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -2090,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="21">
         <v>4</v>
@@ -2105,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="21">
         <v>3</v>
@@ -2120,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="21">
         <v>4</v>
@@ -2135,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="21">
         <v>4</v>
@@ -2150,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="21">
         <v>4</v>
@@ -2165,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="21">
         <v>3</v>
@@ -2180,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="21">
         <v>3</v>
@@ -2195,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="21">
         <v>3</v>
@@ -2208,7 +2211,7 @@
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="62"/>
       <c r="B22" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="62"/>
       <c r="D22" s="60"/>
@@ -2221,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="21">
         <v>5</v>
@@ -2236,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="21">
         <v>3</v>
@@ -2251,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="21">
         <v>2</v>
@@ -2266,7 +2269,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="21">
         <v>3</v>
@@ -2281,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="21">
         <v>3</v>
@@ -2296,7 +2299,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="21">
         <v>3</v>
@@ -2311,7 +2314,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="21">
         <v>3</v>
@@ -2326,7 +2329,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="21">
         <v>4</v>
@@ -2341,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="21">
         <v>3</v>
@@ -2354,7 +2357,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="62"/>
       <c r="B32" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="60"/>
@@ -2367,7 +2370,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="21">
         <v>2</v>
@@ -2382,7 +2385,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="21">
         <v>3</v>
@@ -2397,7 +2400,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="21">
         <v>3</v>
@@ -2412,7 +2415,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="21">
         <v>3</v>
@@ -2427,7 +2430,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="21">
         <v>4</v>
@@ -2440,7 +2443,7 @@
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="62"/>
       <c r="B38" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="62"/>
       <c r="D38" s="60"/>
@@ -2453,7 +2456,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2468,7 +2471,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="21">
         <v>2</v>
@@ -2481,7 +2484,7 @@
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="62"/>
       <c r="B41" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="62"/>
       <c r="D41" s="60"/>
@@ -2494,7 +2497,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="21">
         <v>1</v>
@@ -2509,7 +2512,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="21">
         <v>3</v>
@@ -2524,7 +2527,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="21">
         <v>5</v>
@@ -2539,7 +2542,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="21">
         <v>5</v>
@@ -2554,7 +2557,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="21">
         <v>5</v>
@@ -2569,7 +2572,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="21">
         <v>5</v>
@@ -2593,7 +2596,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="21">
         <v>5</v>
@@ -2608,7 +2611,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="21">
         <v>5</v>
@@ -2628,7 +2631,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A6" ySplit="5" xSplit="0"/>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="K8" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.625">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="21">
         <v>11</v>
       </c>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="K9" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.625">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
       <c r="A10" s="21">
         <v>11</v>
       </c>
@@ -3162,7 +3165,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="45"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="21"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -3175,7 +3178,7 @@
       <c r="J22" s="40"/>
       <c r="K22" s="39"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="47" t="s">
         <v>31</v>
       </c>
@@ -3219,16 +3222,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="21">
-        <v>2</v>
-      </c>
-      <c r="E25" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="43">
         <v>45924</v>
       </c>
@@ -3244,7 +3249,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>34</v>
@@ -3265,23 +3270,23 @@
       <c r="H26" s="43">
         <v>45924</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="39"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="21">
-        <v>22</v>
+      <c r="A27" s="22">
+        <v>3</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="43">
         <v>45924</v>
@@ -3296,9 +3301,9 @@
       <c r="J27" s="21"/>
       <c r="K27" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>36</v>
@@ -3319,20 +3324,20 @@
       <c r="H28" s="43">
         <v>45924</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="I28" s="50"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>18</v>
@@ -3346,77 +3351,75 @@
       <c r="H29" s="43">
         <v>45924</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="22">
-        <v>5</v>
-      </c>
-      <c r="B30" s="29" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="40"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="21">
-        <v>3</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="43">
-        <v>45924</v>
-      </c>
-      <c r="G30" s="25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="21">
+        <v>26</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="21">
+        <v>2</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="25">
         <v>45931</v>
       </c>
-      <c r="H30" s="43">
-        <v>45924</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="40"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
+      <c r="G32" s="25">
+        <v>45938</v>
+      </c>
+      <c r="H32" s="25">
+        <v>374649</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="21">
-        <v>2</v>
-      </c>
-      <c r="E33" s="51"/>
+        <v>3</v>
+      </c>
+      <c r="E33" s="39"/>
       <c r="F33" s="25">
         <v>45931</v>
       </c>
@@ -3426,13 +3429,13 @@
       <c r="H33" s="25">
         <v>374649</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="24"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>41</v>
@@ -3441,7 +3444,7 @@
       <c r="D34" s="21">
         <v>3</v>
       </c>
-      <c r="E34" s="39"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="25">
         <v>45931</v>
       </c>
@@ -3451,13 +3454,13 @@
       <c r="H34" s="25">
         <v>374649</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="39"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>42</v>
@@ -3466,7 +3469,7 @@
       <c r="D35" s="21">
         <v>3</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="25">
         <v>45931</v>
       </c>
@@ -3476,22 +3479,22 @@
       <c r="H35" s="25">
         <v>374649</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="24"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="21">
-        <v>3</v>
-      </c>
-      <c r="E36" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="E36" s="51"/>
       <c r="F36" s="25">
         <v>45931</v>
       </c>
@@ -3501,101 +3504,101 @@
       <c r="H36" s="25">
         <v>374649</v>
       </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="39"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="21">
-        <v>30</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="A37" s="40"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="21">
-        <v>4</v>
-      </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="25">
-        <v>45931</v>
-      </c>
-      <c r="G37" s="25">
-        <v>45938</v>
-      </c>
-      <c r="H37" s="25">
-        <v>374649</v>
-      </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="24"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="40"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="39"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="39"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="21"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="24"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="40"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="39"/>
+      <c r="A40" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="21">
+        <v>31</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="25">
+        <v>45938</v>
+      </c>
+      <c r="G41" s="25">
+        <v>45945</v>
+      </c>
+      <c r="H41" s="25">
+        <v>45938</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="21">
-        <v>1</v>
-      </c>
-      <c r="E42" s="51"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="39"/>
       <c r="F42" s="25">
         <v>45938</v>
       </c>
@@ -3605,22 +3608,24 @@
       <c r="H42" s="25">
         <v>45938</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="24"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="21">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="21">
-        <v>2</v>
-      </c>
-      <c r="E43" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="F43" s="25">
         <v>45938</v>
       </c>
@@ -3628,15 +3633,15 @@
         <v>45945</v>
       </c>
       <c r="H43" s="25">
-        <v>45938</v>
-      </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="39"/>
+        <v>45924</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>48</v>
@@ -3657,13 +3662,13 @@
       <c r="H44" s="25">
         <v>45924</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="24"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="21">
-        <v>16</v>
+      <c r="A45" s="52">
+        <v>17</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>49</v>
@@ -3684,103 +3689,101 @@
       <c r="H45" s="25">
         <v>45924</v>
       </c>
-      <c r="I45" s="50"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="39"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="52">
-        <v>17</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="A46" s="40"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="21">
-        <v>3</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="25">
-        <v>45938</v>
-      </c>
-      <c r="G46" s="25">
-        <v>45945</v>
-      </c>
-      <c r="H46" s="25">
-        <v>45924</v>
-      </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="24"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="40"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="39"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="21"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="24"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="40"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="39"/>
+      <c r="A49" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="21">
+        <v>6</v>
+      </c>
+      <c r="B50" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="35"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="21">
+        <v>2</v>
+      </c>
+      <c r="E50" s="51"/>
+      <c r="F50" s="25">
+        <v>45945</v>
+      </c>
+      <c r="G50" s="25">
+        <v>45952</v>
+      </c>
+      <c r="H50" s="25">
+        <v>45945</v>
+      </c>
+      <c r="I50" s="25"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="21">
-        <v>2</v>
-      </c>
-      <c r="E51" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="39"/>
       <c r="F51" s="25">
         <v>45945</v>
       </c>
@@ -3790,13 +3793,13 @@
       <c r="H51" s="25">
         <v>45945</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="24"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>53</v>
@@ -3805,7 +3808,7 @@
       <c r="D52" s="21">
         <v>4</v>
       </c>
-      <c r="E52" s="39"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="25">
         <v>45945</v>
       </c>
@@ -3815,13 +3818,13 @@
       <c r="H52" s="25">
         <v>45945</v>
       </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="39"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>54</v>
@@ -3830,7 +3833,7 @@
       <c r="D53" s="21">
         <v>4</v>
       </c>
-      <c r="E53" s="51"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="25">
         <v>45945</v>
       </c>
@@ -3840,90 +3843,90 @@
       <c r="H53" s="25">
         <v>45945</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="24"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="21">
-        <v>10</v>
-      </c>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="40"/>
+      <c r="B55" s="29">
+        <v>9</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="21">
-        <v>4</v>
-      </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="25">
-        <v>45945</v>
-      </c>
-      <c r="G54" s="25">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="21">
+        <v>33</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="21">
+        <v>1</v>
+      </c>
+      <c r="E57" s="39"/>
+      <c r="F57" s="25">
         <v>45952</v>
       </c>
-      <c r="H54" s="25">
-        <v>45945</v>
-      </c>
-      <c r="I54" s="50"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="21"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="40"/>
-      <c r="B56" s="29">
-        <v>9</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="35"/>
+      <c r="G57" s="25">
+        <v>45959</v>
+      </c>
+      <c r="H57" s="25">
+        <v>45952</v>
+      </c>
+      <c r="I57" s="50"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="21">
-        <v>33</v>
+      <c r="A58" s="28">
+        <v>34</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="21">
-        <v>1</v>
-      </c>
-      <c r="E58" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E58" s="51"/>
       <c r="F58" s="25">
         <v>45952</v>
       </c>
@@ -3933,22 +3936,22 @@
       <c r="H58" s="25">
         <v>45952</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="39"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="21">
-        <v>3</v>
-      </c>
-      <c r="E59" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="E59" s="39"/>
       <c r="F59" s="25">
         <v>45952</v>
       </c>
@@ -3958,13 +3961,13 @@
       <c r="H59" s="25">
         <v>45952</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="24"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>59</v>
@@ -3989,7 +3992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>60</v>
@@ -3998,7 +4001,7 @@
       <c r="D61" s="21">
         <v>5</v>
       </c>
-      <c r="E61" s="39"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="25">
         <v>45952</v>
       </c>
@@ -4008,13 +4011,13 @@
       <c r="H61" s="25">
         <v>45952</v>
       </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="39"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>61</v>
@@ -4023,7 +4026,7 @@
       <c r="D62" s="21">
         <v>5</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="39"/>
       <c r="F62" s="25">
         <v>45952</v>
       </c>
@@ -4033,37 +4036,12 @@
       <c r="H62" s="25">
         <v>45952</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="28">
-        <v>38</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="21">
-        <v>5</v>
-      </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="25">
-        <v>45952</v>
-      </c>
-      <c r="G63" s="25">
-        <v>45959</v>
-      </c>
-      <c r="H63" s="25">
-        <v>45952</v>
-      </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="39"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="61">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -4093,8 +4071,8 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
@@ -4102,8 +4080,8 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -4111,21 +4089,20 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
